--- a/static/result.xlsx
+++ b/static/result.xlsx
@@ -391,243 +391,339 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>43702.54166666666</v>
+        <v>44002</v>
       </c>
       <c r="B2" t="n">
-        <v>14794.52</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>13763.45</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14156</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.77</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>43702.58333333334</v>
+        <v>44002.04166666666</v>
       </c>
       <c r="B3" t="n">
-        <v>14817.46</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>12861.75</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12978</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>43702.625</v>
+        <v>44002.08333333334</v>
       </c>
       <c r="B4" t="n">
-        <v>14743.84</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>12416.56</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12496</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>43702.66666666666</v>
+        <v>44002.125</v>
       </c>
       <c r="B5" t="n">
-        <v>14774.66</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>12192.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12041</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>43702.70833333334</v>
+        <v>44002.16666666666</v>
       </c>
       <c r="B6" t="n">
-        <v>15030.5</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>12161.95</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12168</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>43702.75</v>
+        <v>44002.20833333334</v>
       </c>
       <c r="B7" t="n">
-        <v>15046.11</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+        <v>12161.95</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11929</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>43702.79166666666</v>
+        <v>44002.25</v>
       </c>
       <c r="B8" t="n">
-        <v>15215.75</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+        <v>12391.12</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12214</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>43702.83333333334</v>
+        <v>44002.29166666666</v>
       </c>
       <c r="B9" t="n">
-        <v>15392.52</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+        <v>12959.51</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12451</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.08</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>43702.875</v>
+        <v>44002.33333333334</v>
       </c>
       <c r="B10" t="n">
-        <v>15923.63</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+        <v>13652.64</v>
+      </c>
+      <c r="C10" t="n">
+        <v>13178</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>43702.91666666666</v>
+        <v>44002.375</v>
       </c>
       <c r="B11" t="n">
-        <v>15403.18</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+        <v>14502.01</v>
+      </c>
+      <c r="C11" t="n">
+        <v>14051</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.21</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>43702.95833333334</v>
+        <v>44002.41666666666</v>
       </c>
       <c r="B12" t="n">
-        <v>14208.27</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+        <v>14808.22</v>
+      </c>
+      <c r="C12" t="n">
+        <v>14698</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>43703</v>
+        <v>44002.45833333334</v>
       </c>
       <c r="B13" t="n">
-        <v>13698.58</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+        <v>14880.46</v>
+      </c>
+      <c r="C13" t="n">
+        <v>14991</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>43703.04166666666</v>
+        <v>44002.5</v>
       </c>
       <c r="B14" t="n">
-        <v>13088.58</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+        <v>14880.46</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14988</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>43703.08333333334</v>
+        <v>44002.54166666666</v>
       </c>
       <c r="B15" t="n">
-        <v>12636.84</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+        <v>14880.46</v>
+      </c>
+      <c r="C15" t="n">
+        <v>15054</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>43703.125</v>
+        <v>44002.58333333334</v>
       </c>
       <c r="B16" t="n">
-        <v>12473.53</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+        <v>14880.46</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15233</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.31</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>43703.16666666666</v>
+        <v>44002.625</v>
       </c>
       <c r="B17" t="n">
-        <v>12407.07</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+        <v>14880.46</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15150</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.78</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>43703.20833333334</v>
+        <v>44002.66666666666</v>
       </c>
       <c r="B18" t="n">
-        <v>12500.92</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+        <v>14880.46</v>
+      </c>
+      <c r="C18" t="n">
+        <v>15212</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>43703.25</v>
+        <v>44002.70833333334</v>
       </c>
       <c r="B19" t="n">
-        <v>13152.38</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+        <v>15089.73</v>
+      </c>
+      <c r="C19" t="n">
+        <v>15235</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>43703.29166666666</v>
+        <v>44002.75</v>
       </c>
       <c r="B20" t="n">
-        <v>14261.79</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+        <v>15293.86</v>
+      </c>
+      <c r="C20" t="n">
+        <v>15296</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>43703.33333333334</v>
+        <v>44002.79166666666</v>
       </c>
       <c r="B21" t="n">
-        <v>14985.14</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+        <v>15473.52</v>
+      </c>
+      <c r="C21" t="n">
+        <v>15196</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.83</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>43703.375</v>
+        <v>44002.83333333334</v>
       </c>
       <c r="B22" t="n">
-        <v>15833.72</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+        <v>15571.42</v>
+      </c>
+      <c r="C22" t="n">
+        <v>15095</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.16</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>43703.41666666666</v>
+        <v>44002.875</v>
       </c>
       <c r="B23" t="n">
-        <v>16215.69</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+        <v>15628.18</v>
+      </c>
+      <c r="C23" t="n">
+        <v>15505</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>43703.45833333334</v>
+        <v>44002.91666666666</v>
       </c>
       <c r="B24" t="n">
-        <v>16357.85</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+        <v>15590.97</v>
+      </c>
+      <c r="C24" t="n">
+        <v>15798</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>43703.5</v>
+        <v>44002.95833333334</v>
       </c>
       <c r="B25" t="n">
-        <v>16366.5</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+        <v>14855.92</v>
+      </c>
+      <c r="C25" t="n">
+        <v>15092</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -636,12 +732,14 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>349329.03</v>
+        <v>340658.02</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
+        <v>340205</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
